--- a/Code/Results/Cases/Case_1_188/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_188/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011877490529878</v>
+        <v>1.049736449159357</v>
       </c>
       <c r="D2">
-        <v>1.042286247638402</v>
+        <v>1.055841343850541</v>
       </c>
       <c r="E2">
-        <v>1.01627775891402</v>
+        <v>1.046878816966142</v>
       </c>
       <c r="F2">
-        <v>1.043478808095864</v>
+        <v>1.064686919665635</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051940473558782</v>
+        <v>1.046835850159026</v>
       </c>
       <c r="J2">
-        <v>1.033708660036557</v>
+        <v>1.054773316231763</v>
       </c>
       <c r="K2">
-        <v>1.053186300801674</v>
+        <v>1.058580693466262</v>
       </c>
       <c r="L2">
-        <v>1.027514882609563</v>
+        <v>1.049643018994857</v>
       </c>
       <c r="M2">
-        <v>1.054363908089952</v>
+        <v>1.06740218526035</v>
       </c>
       <c r="N2">
-        <v>1.035176644901849</v>
+        <v>1.056271215325002</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.018256687024993</v>
+        <v>1.051042882300646</v>
       </c>
       <c r="D3">
-        <v>1.045955000131946</v>
+        <v>1.056603859327626</v>
       </c>
       <c r="E3">
-        <v>1.021551125211179</v>
+        <v>1.048002975686036</v>
       </c>
       <c r="F3">
-        <v>1.04805955434599</v>
+        <v>1.06566561341653</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053877557591173</v>
+        <v>1.047170413351613</v>
       </c>
       <c r="J3">
-        <v>1.038261733710534</v>
+        <v>1.055727403704518</v>
       </c>
       <c r="K3">
-        <v>1.056031797829971</v>
+        <v>1.059156860045573</v>
       </c>
       <c r="L3">
-        <v>1.03191548575929</v>
+        <v>1.050578098213877</v>
       </c>
       <c r="M3">
-        <v>1.058112326982419</v>
+        <v>1.068195723151123</v>
       </c>
       <c r="N3">
-        <v>1.039736184462688</v>
+        <v>1.057226657711404</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.022278938368567</v>
+        <v>1.051887844116897</v>
       </c>
       <c r="D4">
-        <v>1.048276054597163</v>
+        <v>1.05709717228694</v>
       </c>
       <c r="E4">
-        <v>1.024881958921096</v>
+        <v>1.048730286175898</v>
       </c>
       <c r="F4">
-        <v>1.05095787766587</v>
+        <v>1.066299027273642</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055090695353439</v>
+        <v>1.047385606066681</v>
       </c>
       <c r="J4">
-        <v>1.041129419794133</v>
+        <v>1.056343889264246</v>
       </c>
       <c r="K4">
-        <v>1.05782475638684</v>
+        <v>1.05952892963672</v>
       </c>
       <c r="L4">
-        <v>1.034689076434613</v>
+        <v>1.051182477912135</v>
       </c>
       <c r="M4">
-        <v>1.06047785597017</v>
+        <v>1.068708708712492</v>
       </c>
       <c r="N4">
-        <v>1.042607942989454</v>
+        <v>1.057844018751338</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.023945834025317</v>
+        <v>1.052242976180588</v>
       </c>
       <c r="D5">
-        <v>1.049239669033228</v>
+        <v>1.057304540527321</v>
       </c>
       <c r="E5">
-        <v>1.026263645345707</v>
+        <v>1.049036026420399</v>
       </c>
       <c r="F5">
-        <v>1.052161260692508</v>
+        <v>1.066565346861778</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.055591397060801</v>
+        <v>1.047475764191129</v>
       </c>
       <c r="J5">
-        <v>1.042317029211095</v>
+        <v>1.056602852608992</v>
       </c>
       <c r="K5">
-        <v>1.058567398548979</v>
+        <v>1.059685168695449</v>
       </c>
       <c r="L5">
-        <v>1.035838176218066</v>
+        <v>1.051436398177482</v>
       </c>
       <c r="M5">
-        <v>1.061458550776356</v>
+        <v>1.068924251884223</v>
       </c>
       <c r="N5">
-        <v>1.043797238948009</v>
+        <v>1.058103349853738</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.024224335726399</v>
+        <v>1.052302599231679</v>
       </c>
       <c r="D6">
-        <v>1.049400765235519</v>
+        <v>1.05733935736207</v>
       </c>
       <c r="E6">
-        <v>1.026494570814628</v>
+        <v>1.049087360367023</v>
       </c>
       <c r="F6">
-        <v>1.052362448647059</v>
+        <v>1.066610065004973</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.055674931187711</v>
+        <v>1.047490884035625</v>
       </c>
       <c r="J6">
-        <v>1.042515403261034</v>
+        <v>1.056646321596152</v>
       </c>
       <c r="K6">
-        <v>1.058691451696705</v>
+        <v>1.059711391431484</v>
       </c>
       <c r="L6">
-        <v>1.036030144561107</v>
+        <v>1.05147902311543</v>
       </c>
       <c r="M6">
-        <v>1.061622422174625</v>
+        <v>1.068960435746229</v>
       </c>
       <c r="N6">
-        <v>1.043995894711853</v>
+        <v>1.058146880571845</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.02230130451597</v>
+        <v>1.051892589758411</v>
       </c>
       <c r="D7">
-        <v>1.048288977588272</v>
+        <v>1.057099943232252</v>
       </c>
       <c r="E7">
-        <v>1.024900493021205</v>
+        <v>1.048734371572686</v>
       </c>
       <c r="F7">
-        <v>1.050974015705627</v>
+        <v>1.066302585721167</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055097421865075</v>
+        <v>1.047386811977163</v>
       </c>
       <c r="J7">
-        <v>1.041145358242402</v>
+        <v>1.056347350357022</v>
       </c>
       <c r="K7">
-        <v>1.057834722733515</v>
+        <v>1.059531018013709</v>
       </c>
       <c r="L7">
-        <v>1.034704496253343</v>
+        <v>1.051185871437604</v>
       </c>
       <c r="M7">
-        <v>1.060491013445118</v>
+        <v>1.068711589265906</v>
       </c>
       <c r="N7">
-        <v>1.042623904072147</v>
+        <v>1.057847484759263</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014055968064034</v>
+        <v>1.050178046427726</v>
       </c>
       <c r="D8">
-        <v>1.043537379708147</v>
+        <v>1.056099057211121</v>
       </c>
       <c r="E8">
-        <v>1.018077323505711</v>
+        <v>1.047258752469124</v>
       </c>
       <c r="F8">
-        <v>1.045040914566123</v>
+        <v>1.065017646407193</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052603675410008</v>
+        <v>1.046949185138353</v>
       </c>
       <c r="J8">
-        <v>1.035264147548723</v>
+        <v>1.055095936354762</v>
       </c>
       <c r="K8">
-        <v>1.054158217059148</v>
+        <v>1.058775566834813</v>
       </c>
       <c r="L8">
-        <v>1.029017869377966</v>
+        <v>1.049959174976482</v>
       </c>
       <c r="M8">
-        <v>1.055643476993743</v>
+        <v>1.067670466153778</v>
       </c>
       <c r="N8">
-        <v>1.036734341384699</v>
+        <v>1.056594293605581</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.998659796198168</v>
+        <v>1.047153699652173</v>
       </c>
       <c r="D9">
-        <v>1.034735198881457</v>
+        <v>1.054334714374455</v>
       </c>
       <c r="E9">
-        <v>1.005387431030193</v>
+        <v>1.04465771398433</v>
       </c>
       <c r="F9">
-        <v>1.034050484276093</v>
+        <v>1.062754422098638</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047884136859787</v>
+        <v>1.046168115949116</v>
       </c>
       <c r="J9">
-        <v>1.02425996944238</v>
+        <v>1.052884020358555</v>
       </c>
       <c r="K9">
-        <v>1.047288783304075</v>
+        <v>1.057438619511804</v>
       </c>
       <c r="L9">
-        <v>1.018393701491201</v>
+        <v>1.04779230545248</v>
       </c>
       <c r="M9">
-        <v>1.046614257995336</v>
+        <v>1.065832124397619</v>
       </c>
       <c r="N9">
-        <v>1.025714536083248</v>
+        <v>1.054379236434949</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9877225381510863</v>
+        <v>1.045135195535931</v>
       </c>
       <c r="D10">
-        <v>1.028541395741707</v>
+        <v>1.05315804511616</v>
       </c>
       <c r="E10">
-        <v>0.9964129709819995</v>
+        <v>1.04292303195617</v>
       </c>
       <c r="F10">
-        <v>1.026314359414482</v>
+        <v>1.061246249172809</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044493511689495</v>
+        <v>1.045640708700605</v>
       </c>
       <c r="J10">
-        <v>1.016431883244338</v>
+        <v>1.051404747865531</v>
       </c>
       <c r="K10">
-        <v>1.042413763854542</v>
+        <v>1.056543439668</v>
       </c>
       <c r="L10">
-        <v>1.010847293784938</v>
+        <v>1.046344076350257</v>
       </c>
       <c r="M10">
-        <v>1.040224216238149</v>
+        <v>1.064604006293335</v>
       </c>
       <c r="N10">
-        <v>1.017875333104912</v>
+        <v>1.05289786320531</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9828039882581551</v>
+        <v>1.044260579612514</v>
       </c>
       <c r="D11">
-        <v>1.025772862485763</v>
+        <v>1.052648428612865</v>
       </c>
       <c r="E11">
-        <v>0.9923881204143199</v>
+        <v>1.042171714041723</v>
       </c>
       <c r="F11">
-        <v>1.022855149748436</v>
+        <v>1.060593338339958</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042960936845351</v>
+        <v>1.045410740966798</v>
       </c>
       <c r="J11">
-        <v>1.012910061681455</v>
+        <v>1.050763074854185</v>
       </c>
       <c r="K11">
-        <v>1.040224574818605</v>
+        <v>1.056154891419481</v>
       </c>
       <c r="L11">
-        <v>1.007455027607663</v>
+        <v>1.045716087811886</v>
       </c>
       <c r="M11">
-        <v>1.037358549668838</v>
+        <v>1.064071602330194</v>
       </c>
       <c r="N11">
-        <v>1.014348510151451</v>
+        <v>1.052255278944687</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9809473789983183</v>
+        <v>1.043935615898249</v>
       </c>
       <c r="D12">
-        <v>1.024730615528006</v>
+        <v>1.052459117479165</v>
       </c>
       <c r="E12">
-        <v>0.9908706481867168</v>
+        <v>1.041892610385447</v>
       </c>
       <c r="F12">
-        <v>1.021552634098302</v>
+        <v>1.060350838131951</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042381376520856</v>
+        <v>1.045325080147615</v>
       </c>
       <c r="J12">
-        <v>1.011580555595427</v>
+        <v>1.050524555586465</v>
       </c>
       <c r="K12">
-        <v>1.039398873195623</v>
+        <v>1.056010427155375</v>
       </c>
       <c r="L12">
-        <v>1.00617486742828</v>
+        <v>1.045482688190267</v>
       </c>
       <c r="M12">
-        <v>1.036278249383076</v>
+        <v>1.063873749680407</v>
       </c>
       <c r="N12">
-        <v>1.013017116014284</v>
+        <v>1.052016420952248</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9813470072137477</v>
+        <v>1.044005325960183</v>
       </c>
       <c r="D13">
-        <v>1.024954824747595</v>
+        <v>1.052499726126924</v>
       </c>
       <c r="E13">
-        <v>0.9911971952134541</v>
+        <v>1.041952480495018</v>
       </c>
       <c r="F13">
-        <v>1.021832845172892</v>
+        <v>1.060402854359866</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042506170586263</v>
+        <v>1.045343465580509</v>
       </c>
       <c r="J13">
-        <v>1.011866730555641</v>
+        <v>1.050575726660609</v>
       </c>
       <c r="K13">
-        <v>1.039576569804456</v>
+        <v>1.056041421580385</v>
       </c>
       <c r="L13">
-        <v>1.006450400725823</v>
+        <v>1.04553275942254</v>
       </c>
       <c r="M13">
-        <v>1.036510713023834</v>
+        <v>1.063916194018039</v>
       </c>
       <c r="N13">
-        <v>1.013303697375767</v>
+        <v>1.052067664695187</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9826511385835563</v>
+        <v>1.044233719917428</v>
       </c>
       <c r="D14">
-        <v>1.025686998804411</v>
+        <v>1.052632780440931</v>
       </c>
       <c r="E14">
-        <v>0.9922631537951722</v>
+        <v>1.042148643886732</v>
       </c>
       <c r="F14">
-        <v>1.022747849854211</v>
+        <v>1.060573292794798</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042913243987962</v>
+        <v>1.045403665127927</v>
       </c>
       <c r="J14">
-        <v>1.012800608840704</v>
+        <v>1.050743362326717</v>
       </c>
       <c r="K14">
-        <v>1.040156582649499</v>
+        <v>1.056142952820177</v>
       </c>
       <c r="L14">
-        <v>1.007349628244748</v>
+        <v>1.045696797727732</v>
       </c>
       <c r="M14">
-        <v>1.037269581658229</v>
+        <v>1.064055249693291</v>
       </c>
       <c r="N14">
-        <v>1.014238901875111</v>
+        <v>1.052235538423169</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9834506594517026</v>
+        <v>1.044374428614415</v>
       </c>
       <c r="D15">
-        <v>1.026136246893326</v>
+        <v>1.05271475735294</v>
       </c>
       <c r="E15">
-        <v>0.9929168986623068</v>
+        <v>1.042269502485146</v>
       </c>
       <c r="F15">
-        <v>1.023309243744662</v>
+        <v>1.060678308159136</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043162671806428</v>
+        <v>1.045440724159579</v>
       </c>
       <c r="J15">
-        <v>1.013373126732258</v>
+        <v>1.050846625154091</v>
       </c>
       <c r="K15">
-        <v>1.040512261477664</v>
+        <v>1.056205490982334</v>
       </c>
       <c r="L15">
-        <v>1.007900961405587</v>
+        <v>1.04579784896109</v>
       </c>
       <c r="M15">
-        <v>1.037735010951716</v>
+        <v>1.064140913987653</v>
       </c>
       <c r="N15">
-        <v>1.01481223280774</v>
+        <v>1.052338947895603</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.988044935417118</v>
+        <v>1.045193228158871</v>
       </c>
       <c r="D16">
-        <v>1.028723236658276</v>
+        <v>1.053191864330232</v>
       </c>
       <c r="E16">
-        <v>0.9966770285419891</v>
+        <v>1.042972890269394</v>
       </c>
       <c r="F16">
-        <v>1.026541532997536</v>
+        <v>1.061289583554986</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044593815323905</v>
+        <v>1.045655937201555</v>
       </c>
       <c r="J16">
-        <v>1.016662706431547</v>
+        <v>1.051447309409473</v>
       </c>
       <c r="K16">
-        <v>1.042557339186571</v>
+        <v>1.056569206710021</v>
       </c>
       <c r="L16">
-        <v>1.011069685565321</v>
+        <v>1.046385734826097</v>
       </c>
       <c r="M16">
-        <v>1.040412235215266</v>
+        <v>1.064639327040152</v>
       </c>
       <c r="N16">
-        <v>1.018106484087522</v>
+        <v>1.052940485191527</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.990876422088994</v>
+        <v>1.045706678805308</v>
       </c>
       <c r="D17">
-        <v>1.030322210940708</v>
+        <v>1.053491111085306</v>
       </c>
       <c r="E17">
-        <v>0.998997403463993</v>
+        <v>1.043414054572201</v>
       </c>
       <c r="F17">
-        <v>1.028538976286855</v>
+        <v>1.061673056853731</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045473872786948</v>
+        <v>1.045790506662656</v>
       </c>
       <c r="J17">
-        <v>1.018689777795542</v>
+        <v>1.051823796385655</v>
       </c>
       <c r="K17">
-        <v>1.043818679722635</v>
+        <v>1.056797106778408</v>
       </c>
       <c r="L17">
-        <v>1.013023034695385</v>
+        <v>1.046754258765557</v>
       </c>
       <c r="M17">
-        <v>1.042064456991743</v>
+        <v>1.064951801592998</v>
       </c>
       <c r="N17">
-        <v>1.020136434125362</v>
+        <v>1.053317506822399</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9925105182008078</v>
+        <v>1.046006109176578</v>
       </c>
       <c r="D18">
-        <v>1.031246576325787</v>
+        <v>1.053665645965051</v>
       </c>
       <c r="E18">
-        <v>1.00033755847774</v>
+        <v>1.043671360153814</v>
       </c>
       <c r="F18">
-        <v>1.029693579094356</v>
+        <v>1.061896743710496</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045981025431013</v>
+        <v>1.045868844717715</v>
       </c>
       <c r="J18">
-        <v>1.019859485893021</v>
+        <v>1.052043285202424</v>
       </c>
       <c r="K18">
-        <v>1.04454690265174</v>
+        <v>1.05692994738737</v>
       </c>
       <c r="L18">
-        <v>1.014150467765499</v>
+        <v>1.046969126260422</v>
       </c>
       <c r="M18">
-        <v>1.043018718158215</v>
+        <v>1.065134002881871</v>
       </c>
       <c r="N18">
-        <v>1.021307803342507</v>
+        <v>1.053537307338462</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.993064803948579</v>
+        <v>1.046108197689438</v>
       </c>
       <c r="D19">
-        <v>1.031560380479456</v>
+        <v>1.053725156041155</v>
       </c>
       <c r="E19">
-        <v>1.000792310150167</v>
+        <v>1.043759091708381</v>
       </c>
       <c r="F19">
-        <v>1.030085526328473</v>
+        <v>1.061973017438935</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046152922565192</v>
+        <v>1.04589552986233</v>
       </c>
       <c r="J19">
-        <v>1.020256223288664</v>
+        <v>1.052118106685415</v>
       </c>
       <c r="K19">
-        <v>1.04479395889037</v>
+        <v>1.056975227411516</v>
       </c>
       <c r="L19">
-        <v>1.014532911209818</v>
+        <v>1.047042375952331</v>
       </c>
       <c r="M19">
-        <v>1.043342522995114</v>
+        <v>1.065196118689863</v>
       </c>
       <c r="N19">
-        <v>1.021705104150758</v>
+        <v>1.053612235076542</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9905744517208835</v>
+        <v>1.045651596303694</v>
       </c>
       <c r="D20">
-        <v>1.030151519641599</v>
+        <v>1.053459005848329</v>
       </c>
       <c r="E20">
-        <v>0.9987498339115664</v>
+        <v>1.043366723706845</v>
       </c>
       <c r="F20">
-        <v>1.028325760808984</v>
+        <v>1.061631912421591</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045380093398824</v>
+        <v>1.045776084570682</v>
       </c>
       <c r="J20">
-        <v>1.018473610720333</v>
+        <v>1.051783414257385</v>
       </c>
       <c r="K20">
-        <v>1.043684130520893</v>
+        <v>1.056772664534519</v>
       </c>
       <c r="L20">
-        <v>1.01281470166091</v>
+        <v>1.046714728575734</v>
       </c>
       <c r="M20">
-        <v>1.041888173998822</v>
+        <v>1.064918282226269</v>
       </c>
       <c r="N20">
-        <v>1.019919960068112</v>
+        <v>1.053277067346874</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9822679414872898</v>
+        <v>1.044166466170783</v>
       </c>
       <c r="D21">
-        <v>1.02547178276854</v>
+        <v>1.05259359972923</v>
       </c>
       <c r="E21">
-        <v>0.991949889372211</v>
+        <v>1.04209087952405</v>
       </c>
       <c r="F21">
-        <v>1.022478899936838</v>
+        <v>1.060523102379522</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042793660445029</v>
+        <v>1.045385944507572</v>
       </c>
       <c r="J21">
-        <v>1.012526206862227</v>
+        <v>1.050694002605068</v>
       </c>
       <c r="K21">
-        <v>1.039986136124196</v>
+        <v>1.056113058273395</v>
       </c>
       <c r="L21">
-        <v>1.007085395567796</v>
+        <v>1.045648496326666</v>
       </c>
       <c r="M21">
-        <v>1.037046560480548</v>
+        <v>1.064014303867684</v>
       </c>
       <c r="N21">
-        <v>1.013964110214351</v>
+        <v>1.052186108605054</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9768725474815299</v>
+        <v>1.043232169354876</v>
       </c>
       <c r="D22">
-        <v>1.022448577479254</v>
+        <v>1.052049386820806</v>
       </c>
       <c r="E22">
-        <v>0.9875436074466376</v>
+        <v>1.041288526699273</v>
       </c>
       <c r="F22">
-        <v>1.018700184948367</v>
+        <v>1.05982606450445</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041107557572816</v>
+        <v>1.045139255817421</v>
       </c>
       <c r="J22">
-        <v>1.008662492279768</v>
+        <v>1.05000804220412</v>
       </c>
       <c r="K22">
-        <v>1.037588066222951</v>
+        <v>1.055697526551501</v>
       </c>
       <c r="L22">
-        <v>1.003365933616057</v>
+        <v>1.044977321725067</v>
       </c>
       <c r="M22">
-        <v>1.033910072332917</v>
+        <v>1.063445391858995</v>
       </c>
       <c r="N22">
-        <v>1.010094908714011</v>
+        <v>1.051499174061655</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9797499220391472</v>
+        <v>1.043727509880899</v>
       </c>
       <c r="D23">
-        <v>1.024059219597865</v>
+        <v>1.052337893714449</v>
       </c>
       <c r="E23">
-        <v>0.9898924474739739</v>
+        <v>1.041713886849001</v>
       </c>
       <c r="F23">
-        <v>1.020713497755774</v>
+        <v>1.060195566833178</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042007294247532</v>
+        <v>1.045270162334917</v>
       </c>
       <c r="J23">
-        <v>1.010723043684551</v>
+        <v>1.050371778743966</v>
       </c>
       <c r="K23">
-        <v>1.038866528820701</v>
+        <v>1.05591788482978</v>
       </c>
       <c r="L23">
-        <v>1.005349308120684</v>
+        <v>1.045333199874165</v>
       </c>
       <c r="M23">
-        <v>1.035581911858999</v>
+        <v>1.063747034819923</v>
       </c>
       <c r="N23">
-        <v>1.012158386338136</v>
+        <v>1.05186342714911</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9907109529324567</v>
+        <v>1.045676485890269</v>
       </c>
       <c r="D24">
-        <v>1.030228673243752</v>
+        <v>1.053473512856165</v>
       </c>
       <c r="E24">
-        <v>0.9988617408578803</v>
+        <v>1.043388110543477</v>
       </c>
       <c r="F24">
-        <v>1.028422135981228</v>
+        <v>1.061650503778278</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045422487289122</v>
+        <v>1.04578260176923</v>
       </c>
       <c r="J24">
-        <v>1.018571326294338</v>
+        <v>1.051801661541749</v>
       </c>
       <c r="K24">
-        <v>1.043744950619941</v>
+        <v>1.056783709209518</v>
       </c>
       <c r="L24">
-        <v>1.012908875132078</v>
+        <v>1.046732590833552</v>
       </c>
       <c r="M24">
-        <v>1.041967857828401</v>
+        <v>1.064933428370247</v>
       </c>
       <c r="N24">
-        <v>1.02001781440944</v>
+        <v>1.053295340544476</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.002751581192305</v>
+        <v>1.047935952665291</v>
       </c>
       <c r="D25">
-        <v>1.03706526403363</v>
+        <v>1.054790916851586</v>
       </c>
       <c r="E25">
-        <v>1.008753528865817</v>
+        <v>1.045330252202871</v>
       </c>
       <c r="F25">
-        <v>1.036960032497758</v>
+        <v>1.063339404144522</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049145286898021</v>
+        <v>1.046371218915493</v>
       </c>
       <c r="J25">
-        <v>1.027186697167714</v>
+        <v>1.053456666984637</v>
       </c>
       <c r="K25">
-        <v>1.049114201548707</v>
+        <v>1.057784935230403</v>
       </c>
       <c r="L25">
-        <v>1.021217460517892</v>
+        <v>1.04835312877055</v>
       </c>
       <c r="M25">
-        <v>1.049010459443027</v>
+        <v>1.066307827835777</v>
       </c>
       <c r="N25">
-        <v>1.028645420097654</v>
+        <v>1.054952696284923</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_188/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_188/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.049736449159357</v>
+        <v>1.011877490529878</v>
       </c>
       <c r="D2">
-        <v>1.055841343850541</v>
+        <v>1.042286247638401</v>
       </c>
       <c r="E2">
-        <v>1.046878816966142</v>
+        <v>1.016277758914019</v>
       </c>
       <c r="F2">
-        <v>1.064686919665635</v>
+        <v>1.043478808095863</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046835850159026</v>
+        <v>1.051940473558782</v>
       </c>
       <c r="J2">
-        <v>1.054773316231763</v>
+        <v>1.033708660036556</v>
       </c>
       <c r="K2">
-        <v>1.058580693466262</v>
+        <v>1.053186300801673</v>
       </c>
       <c r="L2">
-        <v>1.049643018994857</v>
+        <v>1.027514882609563</v>
       </c>
       <c r="M2">
-        <v>1.06740218526035</v>
+        <v>1.054363908089951</v>
       </c>
       <c r="N2">
-        <v>1.056271215325002</v>
+        <v>1.035176644901849</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.051042882300646</v>
+        <v>1.018256687024993</v>
       </c>
       <c r="D3">
-        <v>1.056603859327626</v>
+        <v>1.045955000131946</v>
       </c>
       <c r="E3">
-        <v>1.048002975686036</v>
+        <v>1.021551125211179</v>
       </c>
       <c r="F3">
-        <v>1.06566561341653</v>
+        <v>1.04805955434599</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047170413351613</v>
+        <v>1.053877557591172</v>
       </c>
       <c r="J3">
-        <v>1.055727403704518</v>
+        <v>1.038261733710534</v>
       </c>
       <c r="K3">
-        <v>1.059156860045573</v>
+        <v>1.056031797829971</v>
       </c>
       <c r="L3">
-        <v>1.050578098213877</v>
+        <v>1.031915485759289</v>
       </c>
       <c r="M3">
-        <v>1.068195723151123</v>
+        <v>1.058112326982419</v>
       </c>
       <c r="N3">
-        <v>1.057226657711404</v>
+        <v>1.039736184462688</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.051887844116897</v>
+        <v>1.022278938368567</v>
       </c>
       <c r="D4">
-        <v>1.05709717228694</v>
+        <v>1.048276054597163</v>
       </c>
       <c r="E4">
-        <v>1.048730286175898</v>
+        <v>1.024881958921096</v>
       </c>
       <c r="F4">
-        <v>1.066299027273642</v>
+        <v>1.05095787766587</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047385606066681</v>
+        <v>1.055090695353439</v>
       </c>
       <c r="J4">
-        <v>1.056343889264246</v>
+        <v>1.041129419794133</v>
       </c>
       <c r="K4">
-        <v>1.05952892963672</v>
+        <v>1.05782475638684</v>
       </c>
       <c r="L4">
-        <v>1.051182477912135</v>
+        <v>1.034689076434613</v>
       </c>
       <c r="M4">
-        <v>1.068708708712492</v>
+        <v>1.06047785597017</v>
       </c>
       <c r="N4">
-        <v>1.057844018751338</v>
+        <v>1.042607942989455</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.052242976180588</v>
+        <v>1.023945834025318</v>
       </c>
       <c r="D5">
-        <v>1.057304540527321</v>
+        <v>1.049239669033228</v>
       </c>
       <c r="E5">
-        <v>1.049036026420399</v>
+        <v>1.026263645345707</v>
       </c>
       <c r="F5">
-        <v>1.066565346861778</v>
+        <v>1.052161260692509</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047475764191129</v>
+        <v>1.055591397060802</v>
       </c>
       <c r="J5">
-        <v>1.056602852608992</v>
+        <v>1.042317029211096</v>
       </c>
       <c r="K5">
-        <v>1.059685168695449</v>
+        <v>1.058567398548979</v>
       </c>
       <c r="L5">
-        <v>1.051436398177482</v>
+        <v>1.035838176218067</v>
       </c>
       <c r="M5">
-        <v>1.068924251884223</v>
+        <v>1.061458550776356</v>
       </c>
       <c r="N5">
-        <v>1.058103349853738</v>
+        <v>1.043797238948009</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.052302599231679</v>
+        <v>1.0242243357264</v>
       </c>
       <c r="D6">
-        <v>1.05733935736207</v>
+        <v>1.049400765235519</v>
       </c>
       <c r="E6">
-        <v>1.049087360367023</v>
+        <v>1.026494570814628</v>
       </c>
       <c r="F6">
-        <v>1.066610065004973</v>
+        <v>1.052362448647059</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047490884035625</v>
+        <v>1.055674931187711</v>
       </c>
       <c r="J6">
-        <v>1.056646321596152</v>
+        <v>1.042515403261034</v>
       </c>
       <c r="K6">
-        <v>1.059711391431484</v>
+        <v>1.058691451696705</v>
       </c>
       <c r="L6">
-        <v>1.05147902311543</v>
+        <v>1.036030144561107</v>
       </c>
       <c r="M6">
-        <v>1.068960435746229</v>
+        <v>1.061622422174626</v>
       </c>
       <c r="N6">
-        <v>1.058146880571845</v>
+        <v>1.043995894711853</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.051892589758411</v>
+        <v>1.022301304515969</v>
       </c>
       <c r="D7">
-        <v>1.057099943232252</v>
+        <v>1.048288977588271</v>
       </c>
       <c r="E7">
-        <v>1.048734371572686</v>
+        <v>1.024900493021204</v>
       </c>
       <c r="F7">
-        <v>1.066302585721167</v>
+        <v>1.050974015705626</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047386811977163</v>
+        <v>1.055097421865075</v>
       </c>
       <c r="J7">
-        <v>1.056347350357022</v>
+        <v>1.041145358242401</v>
       </c>
       <c r="K7">
-        <v>1.059531018013709</v>
+        <v>1.057834722733515</v>
       </c>
       <c r="L7">
-        <v>1.051185871437604</v>
+        <v>1.034704496253342</v>
       </c>
       <c r="M7">
-        <v>1.068711589265906</v>
+        <v>1.060491013445118</v>
       </c>
       <c r="N7">
-        <v>1.057847484759263</v>
+        <v>1.042623904072147</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.050178046427726</v>
+        <v>1.014055968064034</v>
       </c>
       <c r="D8">
-        <v>1.056099057211121</v>
+        <v>1.043537379708147</v>
       </c>
       <c r="E8">
-        <v>1.047258752469124</v>
+        <v>1.018077323505712</v>
       </c>
       <c r="F8">
-        <v>1.065017646407193</v>
+        <v>1.045040914566122</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046949185138353</v>
+        <v>1.052603675410008</v>
       </c>
       <c r="J8">
-        <v>1.055095936354762</v>
+        <v>1.035264147548723</v>
       </c>
       <c r="K8">
-        <v>1.058775566834813</v>
+        <v>1.054158217059148</v>
       </c>
       <c r="L8">
-        <v>1.049959174976482</v>
+        <v>1.029017869377966</v>
       </c>
       <c r="M8">
-        <v>1.067670466153778</v>
+        <v>1.055643476993743</v>
       </c>
       <c r="N8">
-        <v>1.056594293605581</v>
+        <v>1.0367343413847</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.047153699652173</v>
+        <v>0.9986597961981679</v>
       </c>
       <c r="D9">
-        <v>1.054334714374455</v>
+        <v>1.034735198881457</v>
       </c>
       <c r="E9">
-        <v>1.04465771398433</v>
+        <v>1.005387431030192</v>
       </c>
       <c r="F9">
-        <v>1.062754422098638</v>
+        <v>1.034050484276093</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046168115949116</v>
+        <v>1.047884136859787</v>
       </c>
       <c r="J9">
-        <v>1.052884020358555</v>
+        <v>1.02425996944238</v>
       </c>
       <c r="K9">
-        <v>1.057438619511804</v>
+        <v>1.047288783304076</v>
       </c>
       <c r="L9">
-        <v>1.04779230545248</v>
+        <v>1.018393701491201</v>
       </c>
       <c r="M9">
-        <v>1.065832124397619</v>
+        <v>1.046614257995336</v>
       </c>
       <c r="N9">
-        <v>1.054379236434949</v>
+        <v>1.025714536083248</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.045135195535931</v>
+        <v>0.9877225381510861</v>
       </c>
       <c r="D10">
-        <v>1.05315804511616</v>
+        <v>1.028541395741707</v>
       </c>
       <c r="E10">
-        <v>1.04292303195617</v>
+        <v>0.9964129709819991</v>
       </c>
       <c r="F10">
-        <v>1.061246249172809</v>
+        <v>1.026314359414482</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045640708700605</v>
+        <v>1.044493511689495</v>
       </c>
       <c r="J10">
-        <v>1.051404747865531</v>
+        <v>1.016431883244338</v>
       </c>
       <c r="K10">
-        <v>1.056543439668</v>
+        <v>1.042413763854542</v>
       </c>
       <c r="L10">
-        <v>1.046344076350257</v>
+        <v>1.010847293784938</v>
       </c>
       <c r="M10">
-        <v>1.064604006293335</v>
+        <v>1.040224216238148</v>
       </c>
       <c r="N10">
-        <v>1.05289786320531</v>
+        <v>1.017875333104911</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.044260579612514</v>
+        <v>0.982803988258155</v>
       </c>
       <c r="D11">
-        <v>1.052648428612865</v>
+        <v>1.025772862485763</v>
       </c>
       <c r="E11">
-        <v>1.042171714041723</v>
+        <v>0.9923881204143197</v>
       </c>
       <c r="F11">
-        <v>1.060593338339958</v>
+        <v>1.022855149748436</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045410740966798</v>
+        <v>1.042960936845352</v>
       </c>
       <c r="J11">
-        <v>1.050763074854185</v>
+        <v>1.012910061681455</v>
       </c>
       <c r="K11">
-        <v>1.056154891419481</v>
+        <v>1.040224574818605</v>
       </c>
       <c r="L11">
-        <v>1.045716087811886</v>
+        <v>1.007455027607663</v>
       </c>
       <c r="M11">
-        <v>1.064071602330194</v>
+        <v>1.037358549668838</v>
       </c>
       <c r="N11">
-        <v>1.052255278944687</v>
+        <v>1.014348510151451</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.043935615898249</v>
+        <v>0.9809473789983164</v>
       </c>
       <c r="D12">
-        <v>1.052459117479165</v>
+        <v>1.024730615528005</v>
       </c>
       <c r="E12">
-        <v>1.041892610385447</v>
+        <v>0.9908706481867146</v>
       </c>
       <c r="F12">
-        <v>1.060350838131951</v>
+        <v>1.0215526340983</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045325080147615</v>
+        <v>1.042381376520855</v>
       </c>
       <c r="J12">
-        <v>1.050524555586465</v>
+        <v>1.011580555595425</v>
       </c>
       <c r="K12">
-        <v>1.056010427155375</v>
+        <v>1.039398873195622</v>
       </c>
       <c r="L12">
-        <v>1.045482688190267</v>
+        <v>1.006174867428278</v>
       </c>
       <c r="M12">
-        <v>1.063873749680407</v>
+        <v>1.036278249383074</v>
       </c>
       <c r="N12">
-        <v>1.052016420952248</v>
+        <v>1.013017116014282</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.044005325960183</v>
+        <v>0.9813470072137479</v>
       </c>
       <c r="D13">
-        <v>1.052499726126924</v>
+        <v>1.024954824747595</v>
       </c>
       <c r="E13">
-        <v>1.041952480495018</v>
+        <v>0.9911971952134542</v>
       </c>
       <c r="F13">
-        <v>1.060402854359866</v>
+        <v>1.021832845172892</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045343465580509</v>
+        <v>1.042506170586263</v>
       </c>
       <c r="J13">
-        <v>1.050575726660609</v>
+        <v>1.011866730555641</v>
       </c>
       <c r="K13">
-        <v>1.056041421580385</v>
+        <v>1.039576569804456</v>
       </c>
       <c r="L13">
-        <v>1.04553275942254</v>
+        <v>1.006450400725823</v>
       </c>
       <c r="M13">
-        <v>1.063916194018039</v>
+        <v>1.036510713023834</v>
       </c>
       <c r="N13">
-        <v>1.052067664695187</v>
+        <v>1.013303697375767</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.044233719917428</v>
+        <v>0.9826511385835546</v>
       </c>
       <c r="D14">
-        <v>1.052632780440931</v>
+        <v>1.025686998804411</v>
       </c>
       <c r="E14">
-        <v>1.042148643886732</v>
+        <v>0.9922631537951705</v>
       </c>
       <c r="F14">
-        <v>1.060573292794798</v>
+        <v>1.022747849854211</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045403665127927</v>
+        <v>1.042913243987962</v>
       </c>
       <c r="J14">
-        <v>1.050743362326717</v>
+        <v>1.012800608840702</v>
       </c>
       <c r="K14">
-        <v>1.056142952820177</v>
+        <v>1.040156582649499</v>
       </c>
       <c r="L14">
-        <v>1.045696797727732</v>
+        <v>1.007349628244747</v>
       </c>
       <c r="M14">
-        <v>1.064055249693291</v>
+        <v>1.037269581658229</v>
       </c>
       <c r="N14">
-        <v>1.052235538423169</v>
+        <v>1.014238901875109</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.044374428614415</v>
+        <v>0.9834506594517027</v>
       </c>
       <c r="D15">
-        <v>1.05271475735294</v>
+        <v>1.026136246893326</v>
       </c>
       <c r="E15">
-        <v>1.042269502485146</v>
+        <v>0.9929168986623069</v>
       </c>
       <c r="F15">
-        <v>1.060678308159136</v>
+        <v>1.023309243744662</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045440724159579</v>
+        <v>1.043162671806428</v>
       </c>
       <c r="J15">
-        <v>1.050846625154091</v>
+        <v>1.013373126732258</v>
       </c>
       <c r="K15">
-        <v>1.056205490982334</v>
+        <v>1.040512261477664</v>
       </c>
       <c r="L15">
-        <v>1.04579784896109</v>
+        <v>1.007900961405588</v>
       </c>
       <c r="M15">
-        <v>1.064140913987653</v>
+        <v>1.037735010951716</v>
       </c>
       <c r="N15">
-        <v>1.052338947895603</v>
+        <v>1.01481223280774</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.045193228158871</v>
+        <v>0.9880449354171192</v>
       </c>
       <c r="D16">
-        <v>1.053191864330232</v>
+        <v>1.028723236658276</v>
       </c>
       <c r="E16">
-        <v>1.042972890269394</v>
+        <v>0.99667702854199</v>
       </c>
       <c r="F16">
-        <v>1.061289583554986</v>
+        <v>1.026541532997537</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045655937201555</v>
+        <v>1.044593815323906</v>
       </c>
       <c r="J16">
-        <v>1.051447309409473</v>
+        <v>1.016662706431547</v>
       </c>
       <c r="K16">
-        <v>1.056569206710021</v>
+        <v>1.042557339186571</v>
       </c>
       <c r="L16">
-        <v>1.046385734826097</v>
+        <v>1.011069685565322</v>
       </c>
       <c r="M16">
-        <v>1.064639327040152</v>
+        <v>1.040412235215266</v>
       </c>
       <c r="N16">
-        <v>1.052940485191527</v>
+        <v>1.018106484087523</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.045706678805308</v>
+        <v>0.9908764220889928</v>
       </c>
       <c r="D17">
-        <v>1.053491111085306</v>
+        <v>1.030322210940707</v>
       </c>
       <c r="E17">
-        <v>1.043414054572201</v>
+        <v>0.9989974034639922</v>
       </c>
       <c r="F17">
-        <v>1.061673056853731</v>
+        <v>1.028538976286854</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045790506662656</v>
+        <v>1.045473872786948</v>
       </c>
       <c r="J17">
-        <v>1.051823796385655</v>
+        <v>1.018689777795541</v>
       </c>
       <c r="K17">
-        <v>1.056797106778408</v>
+        <v>1.043818679722634</v>
       </c>
       <c r="L17">
-        <v>1.046754258765557</v>
+        <v>1.013023034695384</v>
       </c>
       <c r="M17">
-        <v>1.064951801592998</v>
+        <v>1.042064456991743</v>
       </c>
       <c r="N17">
-        <v>1.053317506822399</v>
+        <v>1.020136434125361</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.046006109176578</v>
+        <v>0.9925105182008069</v>
       </c>
       <c r="D18">
-        <v>1.053665645965051</v>
+        <v>1.031246576325787</v>
       </c>
       <c r="E18">
-        <v>1.043671360153814</v>
+        <v>1.000337558477739</v>
       </c>
       <c r="F18">
-        <v>1.061896743710496</v>
+        <v>1.029693579094356</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045868844717715</v>
+        <v>1.045981025431013</v>
       </c>
       <c r="J18">
-        <v>1.052043285202424</v>
+        <v>1.01985948589302</v>
       </c>
       <c r="K18">
-        <v>1.05692994738737</v>
+        <v>1.04454690265174</v>
       </c>
       <c r="L18">
-        <v>1.046969126260422</v>
+        <v>1.014150467765498</v>
       </c>
       <c r="M18">
-        <v>1.065134002881871</v>
+        <v>1.043018718158214</v>
       </c>
       <c r="N18">
-        <v>1.053537307338462</v>
+        <v>1.021307803342506</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.046108197689438</v>
+        <v>0.993064803948581</v>
       </c>
       <c r="D19">
-        <v>1.053725156041155</v>
+        <v>1.031560380479457</v>
       </c>
       <c r="E19">
-        <v>1.043759091708381</v>
+        <v>1.000792310150169</v>
       </c>
       <c r="F19">
-        <v>1.061973017438935</v>
+        <v>1.030085526328474</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04589552986233</v>
+        <v>1.046152922565193</v>
       </c>
       <c r="J19">
-        <v>1.052118106685415</v>
+        <v>1.020256223288665</v>
       </c>
       <c r="K19">
-        <v>1.056975227411516</v>
+        <v>1.044793958890371</v>
       </c>
       <c r="L19">
-        <v>1.047042375952331</v>
+        <v>1.01453291120982</v>
       </c>
       <c r="M19">
-        <v>1.065196118689863</v>
+        <v>1.043342522995115</v>
       </c>
       <c r="N19">
-        <v>1.053612235076542</v>
+        <v>1.021705104150759</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.045651596303694</v>
+        <v>0.9905744517208828</v>
       </c>
       <c r="D20">
-        <v>1.053459005848329</v>
+        <v>1.030151519641599</v>
       </c>
       <c r="E20">
-        <v>1.043366723706845</v>
+        <v>0.9987498339115651</v>
       </c>
       <c r="F20">
-        <v>1.061631912421591</v>
+        <v>1.028325760808984</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045776084570682</v>
+        <v>1.045380093398824</v>
       </c>
       <c r="J20">
-        <v>1.051783414257385</v>
+        <v>1.018473610720332</v>
       </c>
       <c r="K20">
-        <v>1.056772664534519</v>
+        <v>1.043684130520892</v>
       </c>
       <c r="L20">
-        <v>1.046714728575734</v>
+        <v>1.012814701660909</v>
       </c>
       <c r="M20">
-        <v>1.064918282226269</v>
+        <v>1.041888173998822</v>
       </c>
       <c r="N20">
-        <v>1.053277067346874</v>
+        <v>1.019919960068111</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.044166466170783</v>
+        <v>0.98226794148729</v>
       </c>
       <c r="D21">
-        <v>1.05259359972923</v>
+        <v>1.02547178276854</v>
       </c>
       <c r="E21">
-        <v>1.04209087952405</v>
+        <v>0.9919498893722114</v>
       </c>
       <c r="F21">
-        <v>1.060523102379522</v>
+        <v>1.022478899936838</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045385944507572</v>
+        <v>1.042793660445029</v>
       </c>
       <c r="J21">
-        <v>1.050694002605068</v>
+        <v>1.012526206862228</v>
       </c>
       <c r="K21">
-        <v>1.056113058273395</v>
+        <v>1.039986136124196</v>
       </c>
       <c r="L21">
-        <v>1.045648496326666</v>
+        <v>1.007085395567797</v>
       </c>
       <c r="M21">
-        <v>1.064014303867684</v>
+        <v>1.037046560480548</v>
       </c>
       <c r="N21">
-        <v>1.052186108605054</v>
+        <v>1.013964110214351</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.043232169354876</v>
+        <v>0.9768725474815297</v>
       </c>
       <c r="D22">
-        <v>1.052049386820806</v>
+        <v>1.022448577479255</v>
       </c>
       <c r="E22">
-        <v>1.041288526699273</v>
+        <v>0.9875436074466376</v>
       </c>
       <c r="F22">
-        <v>1.05982606450445</v>
+        <v>1.018700184948367</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045139255817421</v>
+        <v>1.041107557572816</v>
       </c>
       <c r="J22">
-        <v>1.05000804220412</v>
+        <v>1.008662492279768</v>
       </c>
       <c r="K22">
-        <v>1.055697526551501</v>
+        <v>1.037588066222952</v>
       </c>
       <c r="L22">
-        <v>1.044977321725067</v>
+        <v>1.003365933616057</v>
       </c>
       <c r="M22">
-        <v>1.063445391858995</v>
+        <v>1.033910072332917</v>
       </c>
       <c r="N22">
-        <v>1.051499174061655</v>
+        <v>1.010094908714011</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.043727509880899</v>
+        <v>0.9797499220391471</v>
       </c>
       <c r="D23">
-        <v>1.052337893714449</v>
+        <v>1.024059219597865</v>
       </c>
       <c r="E23">
-        <v>1.041713886849001</v>
+        <v>0.9898924474739736</v>
       </c>
       <c r="F23">
-        <v>1.060195566833178</v>
+        <v>1.020713497755773</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045270162334917</v>
+        <v>1.042007294247532</v>
       </c>
       <c r="J23">
-        <v>1.050371778743966</v>
+        <v>1.010723043684551</v>
       </c>
       <c r="K23">
-        <v>1.05591788482978</v>
+        <v>1.038866528820701</v>
       </c>
       <c r="L23">
-        <v>1.045333199874165</v>
+        <v>1.005349308120683</v>
       </c>
       <c r="M23">
-        <v>1.063747034819923</v>
+        <v>1.035581911858998</v>
       </c>
       <c r="N23">
-        <v>1.05186342714911</v>
+        <v>1.012158386338136</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.045676485890269</v>
+        <v>0.9907109529324576</v>
       </c>
       <c r="D24">
-        <v>1.053473512856165</v>
+        <v>1.030228673243752</v>
       </c>
       <c r="E24">
-        <v>1.043388110543477</v>
+        <v>0.9988617408578812</v>
       </c>
       <c r="F24">
-        <v>1.061650503778278</v>
+        <v>1.028422135981228</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04578260176923</v>
+        <v>1.045422487289122</v>
       </c>
       <c r="J24">
-        <v>1.051801661541749</v>
+        <v>1.018571326294339</v>
       </c>
       <c r="K24">
-        <v>1.056783709209518</v>
+        <v>1.043744950619942</v>
       </c>
       <c r="L24">
-        <v>1.046732590833552</v>
+        <v>1.012908875132079</v>
       </c>
       <c r="M24">
-        <v>1.064933428370247</v>
+        <v>1.041967857828402</v>
       </c>
       <c r="N24">
-        <v>1.053295340544476</v>
+        <v>1.020017814409441</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.047935952665291</v>
+        <v>1.002751581192305</v>
       </c>
       <c r="D25">
-        <v>1.054790916851586</v>
+        <v>1.03706526403363</v>
       </c>
       <c r="E25">
-        <v>1.045330252202871</v>
+        <v>1.008753528865816</v>
       </c>
       <c r="F25">
-        <v>1.063339404144522</v>
+        <v>1.036960032497758</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046371218915493</v>
+        <v>1.049145286898021</v>
       </c>
       <c r="J25">
-        <v>1.053456666984637</v>
+        <v>1.027186697167714</v>
       </c>
       <c r="K25">
-        <v>1.057784935230403</v>
+        <v>1.049114201548707</v>
       </c>
       <c r="L25">
-        <v>1.04835312877055</v>
+        <v>1.021217460517892</v>
       </c>
       <c r="M25">
-        <v>1.066307827835777</v>
+        <v>1.049010459443028</v>
       </c>
       <c r="N25">
-        <v>1.054952696284923</v>
+        <v>1.028645420097654</v>
       </c>
     </row>
   </sheetData>
